--- a/acharyan_captions_sanskrit.xlsx
+++ b/acharyan_captions_sanskrit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\POSTER\Sri_Parakala_Poster_Template_300DPI\Parampara_Poster\parampara_poster_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095AE739-2498-4EAE-9A62-72B82C951ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E025BC72-0184-4E68-BADE-35A357E6C8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39370" yWindow="1100" windowWidth="27710" windowHeight="19070" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8430" yWindow="770" windowWidth="27580" windowHeight="19070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acharyan_captions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>श्री ब्रह्मतन्त्र स्वतन्त्र महा देशिकन् (1359-1386)</t>
   </si>
@@ -141,114 +141,60 @@
     <t>ENHANCE</t>
   </si>
   <si>
-    <t>F00</t>
-  </si>
-  <si>
     <t>श्रीलक्ष्मी हयग्रीव</t>
   </si>
   <si>
-    <t>F01</t>
-  </si>
-  <si>
     <t>श्री विश्वक्सेन</t>
   </si>
   <si>
-    <t>F02</t>
-  </si>
-  <si>
     <t>स्वामी नाम्मलवार</t>
   </si>
   <si>
-    <t>F03</t>
-  </si>
-  <si>
     <t>श्रीमनाथ मुनि</t>
   </si>
   <si>
-    <t>F04</t>
-  </si>
-  <si>
     <t>श्री उय्यकोण्ड स्वामि</t>
   </si>
   <si>
-    <t>F05</t>
-  </si>
-  <si>
     <t xml:space="preserve">श्री मनक्कल नम्बि </t>
   </si>
   <si>
-    <t>F06</t>
-  </si>
-  <si>
     <t>श्रीमद् यमुनाचार्य</t>
   </si>
   <si>
-    <t>F07</t>
-  </si>
-  <si>
     <t xml:space="preserve">श्री पेरिया नम्बि </t>
   </si>
   <si>
-    <t>F08</t>
-  </si>
-  <si>
     <t>भगवद रामानुज</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>F09</t>
-  </si>
-  <si>
     <t xml:space="preserve">तिरुक्कुरुगै पिरान् पिळ्ळान् </t>
   </si>
   <si>
-    <t>F10</t>
-  </si>
-  <si>
     <t>किदाम्बी अच्चन्</t>
   </si>
   <si>
-    <t>F11</t>
-  </si>
-  <si>
     <t>एङ्गळाल्वान्</t>
   </si>
   <si>
-    <t>F12</t>
-  </si>
-  <si>
     <t xml:space="preserve">किडाम्बि  रामानुज पिळ्ळान् </t>
   </si>
   <si>
-    <t>F13</t>
-  </si>
-  <si>
     <t>नडदूर् अम्माळ्</t>
   </si>
   <si>
-    <t>F14</t>
-  </si>
-  <si>
     <t>किडाम्बि  रङ्गराजाचार्य</t>
   </si>
   <si>
-    <t>F15</t>
-  </si>
-  <si>
     <t xml:space="preserve">किडाम्बि  अप्पुळ्ळार् </t>
   </si>
   <si>
-    <t>F16</t>
-  </si>
-  <si>
     <t xml:space="preserve"> निगमान्त  महा देशिकन्</t>
   </si>
   <si>
-    <t>F17</t>
-  </si>
-  <si>
     <t>कुमार वरदाचार्य</t>
   </si>
   <si>
@@ -292,13 +238,16 @@
   </si>
   <si>
     <t>Founders and Early Āchāryas</t>
+  </si>
+  <si>
+    <t>Sri Devi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -362,6 +311,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -383,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -400,9 +360,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -413,6 +370,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,8 +620,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="13" t="s">
-        <v>88</v>
+      <c r="B1" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -953,10 +928,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -969,16 +944,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>89</v>
+      <c r="C1" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -986,275 +961,252 @@
       <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D5" s="17">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="D6" s="18">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="8">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="D8" s="17">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D9" s="18">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D10" s="4">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D11" s="17">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="4">
-        <v>4</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D12" s="17">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="8">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="D13" s="17">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D14" s="17">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="4">
-        <v>6</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="D15" s="17">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D16" s="17">
+        <v>12</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="4">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="D17" s="17">
+        <v>12</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D18" s="19">
+        <v>13</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="8">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D19" s="19">
+        <v>14</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="8">
-        <v>9</v>
-      </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="8">
-        <v>9</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="8">
-        <v>10</v>
-      </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="8">
-        <v>10</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="8">
-        <v>11</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="8">
-        <v>11</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="D20" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="4">
-        <v>12</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="4">
-        <v>13</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="8">
-        <v>14</v>
-      </c>
-      <c r="E19" s="9"/>
+      <c r="E20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1268,7 +1220,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1276,51 +1228,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>77</v>
+      <c r="A1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>79</v>
+      <c r="A2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>81</v>
+      <c r="A3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>83</v>
+      <c r="A4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>85</v>
+      <c r="A5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>87</v>
+      <c r="A6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/acharyan_captions_sanskrit.xlsx
+++ b/acharyan_captions_sanskrit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\POSTER\Sri_Parakala_Poster_Template_300DPI\Parampara_Poster\parampara_poster_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E025BC72-0184-4E68-BADE-35A357E6C8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D98132-D50E-423A-8651-9647E97CC3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="770" windowWidth="27580" windowHeight="19070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="2440" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acharyan_captions" sheetId="1" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t xml:space="preserve">किडाम्बि  अप्पुळ्ळार् </t>
   </si>
   <si>
-    <t xml:space="preserve"> निगमान्त  महा देशिकन्</t>
-  </si>
-  <si>
     <t>कुमार वरदाचार्य</t>
   </si>
   <si>
@@ -207,40 +204,43 @@
     <t>M1</t>
   </si>
   <si>
-    <t>Sri Parakala Matham Guru Parampara</t>
-  </si>
-  <si>
     <t>M2</t>
   </si>
   <si>
-    <t>Established by Sri Vedanta Desika in 1359 CE</t>
-  </si>
-  <si>
     <t>M3</t>
   </si>
   <si>
-    <t>Sri Parakāla Āchāryas</t>
-  </si>
-  <si>
     <t>M4</t>
   </si>
   <si>
-    <t>Lineage of Brahmatantra Swatantra Swamis</t>
-  </si>
-  <si>
     <t>M5</t>
   </si>
   <si>
-    <t>Sri Parakala Swamy Mutt – The Eternal Lineage of Sri Vedanta Desika</t>
-  </si>
-  <si>
     <t>Sri Parakāla Mata Acharyas</t>
   </si>
   <si>
     <t>Founders and Early Āchāryas</t>
   </si>
   <si>
-    <t>Sri Devi</t>
+    <t>निगमान्त  महा देशिकन्</t>
+  </si>
+  <si>
+    <t>श्री देवी</t>
+  </si>
+  <si>
+    <t>श्रीपरकालमठगुरुपरम्परा</t>
+  </si>
+  <si>
+    <t>श्रीवेदान्तदेशिकाचार्येण शाके १२८१, ईस्वीये १३५९ वर्षे संस्थापितम्</t>
+  </si>
+  <si>
+    <t>श्रीपरकालस्वामिमठः - श्रीवेदान्तदेशिकस्य शाश्वतपरम्परा</t>
+  </si>
+  <si>
+    <t>ब्रह्मतन्त्रस्वतन्त्रस्वामिपरम्परा</t>
+  </si>
+  <si>
+    <t>श्रीपरकालाचार्याः</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B1" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -930,8 +930,8 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -948,7 +948,7 @@
         <v>36</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>37</v>
@@ -976,7 +976,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D19" s="19">
         <v>14</v>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="20">
         <v>15</v>
@@ -1220,59 +1220,62 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.7265625" customWidth="1"/>
+    <col min="2" max="2" width="58.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/acharyan_captions_sanskrit.xlsx
+++ b/acharyan_captions_sanskrit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\POSTER\Sri_Parakala_Poster_Template_300DPI\Parampara_Poster\parampara_poster_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D98132-D50E-423A-8651-9647E97CC3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D32A1C1-9DBD-4044-8818-4F89F558D549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="2440" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39630" yWindow="2320" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acharyan_captions" sheetId="1" r:id="rId1"/>
@@ -24,114 +24,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
-    <t>श्री ब्रह्मतन्त्र स्वतन्त्र महा देशिकन् (1359-1386)</t>
-  </si>
-  <si>
-    <t>श्री-द्वितीयः (वात्स्य-वेदान्त-रामानुज) ब्रह्मतन्त्र-स्वतन्त्र  महा देशिकन् (1386-1394)</t>
-  </si>
-  <si>
-    <t>श्री त्रितिया (श्रीनिवास) ब्रह्मतन्त्र स्वतन्त्र महा देशिकन् (1394-1406)</t>
-  </si>
-  <si>
-    <t>श्री परकाल -ब्रह्मतन्त्र-स्वतन्त्र महा देशिकन् (1406-1424)</t>
-  </si>
-  <si>
     <t>श्री वेदान्त रामनुज-ब्रह्मतन्त्र-स्वतन्त्र महा देशिकान् (1424-1440)</t>
   </si>
   <si>
-    <t>श्री श्रीनिवास-ब्रह्मतन्त्र-स्वतन्त्र महा देशिकन् (1440-1460)</t>
-  </si>
-  <si>
-    <t>श्रीनारायण-योगीन्द्र-ब्रह्मतन्त्र-स्वतन्त्र महा देशिकन् (1460-1482)</t>
-  </si>
-  <si>
-    <t>श्री रङ्गराज-योगीन्द्र-ब्रह्मतन्त्र-स्वतन्त्र महा देशिकन् (1482-1498)</t>
-  </si>
-  <si>
-    <t>श्री ब्रह्मतन्त्र स्वतन्त्र महा देशिकन् (1498-1517)</t>
-  </si>
-  <si>
-    <t>श्री यतिराज-ब्रह्मतन्त्र-स्वतन्त्र महा देशिकन् (1517-1535)</t>
-  </si>
-  <si>
-    <t>श्री वरदा ब्रह्मतन्त्र स्वतन्त्र महा देशिकन् (1535-1552)</t>
-  </si>
-  <si>
-    <t>श्री पराङ्कुश-ब्रह्मतन्त्र-स्वतन्त्र महा देशिकन् (1552-1567)</t>
-  </si>
-  <si>
-    <t>श्री कवितारकिका सिंह ब्रह्मतन्त्र स्वतन्त्र महा देशिकन् (1567-1583)</t>
-  </si>
-  <si>
-    <t>श्री वेदान्त-यतिवर्य-ब्रह्मतन्त्र-स्वतन्त्र महा देशिकन् (1583-1607)</t>
-  </si>
-  <si>
-    <t>श्री ज्ञानाब्दि-ब्रह्मतन्त्र-स्वतन्त्र-महा देशिकन् (1607-1618)</t>
-  </si>
-  <si>
-    <t>श्री वीर राघव योगीन्द्र ब्रह्मतन्त्र-स्वतन्त्र-महा देशिकन् (1618-1640)</t>
-  </si>
-  <si>
-    <t>श्रीवरद-वेदान्त-ब्रह्मतन्त्र-स्वतन्त्र-महा देशिकन् (1640-1652)</t>
-  </si>
-  <si>
     <t>श्री वराह-ब्रह्मतन्त्र-स्वतन्त्र-महा-देशिकन् (1652-1663)</t>
   </si>
   <si>
-    <t>श्री वेदान्त-लक्ष्मण-ब्रह्मतन्त्र-स्वतन्त्र-महा-देशिकन् (1663-1673)</t>
-  </si>
-  <si>
-    <t>श्री वरद-वेदान्त-योगीन्द्र-ब्रह्मतन्त्र-स्वतन्त्र-महा-देशिकन् (1673-1677)</t>
-  </si>
-  <si>
-    <t>श्री महा परकाल-ब्रह्मतन्त्र-स्वतन्त्र-महा देशिकन् (1676-1738)</t>
-  </si>
-  <si>
-    <t>श्री श्रीनिवास ब्रह्मतन्त्र स्वतन्त्र परकाल महा देशिकन् (1738-1751)</t>
-  </si>
-  <si>
     <t>श्री वेदान्त-ब्रह्मतन्त्र-स्वतन्त्र-परकाल-महा-देशिकन् (1750-1770)</t>
   </si>
   <si>
-    <t>श्रीमद्-अभिनव-श्रीनिवास-ब्रह्मतन्त्र-स्वतन्त्र-परकाल-महा-देशिकन् (1770-1772)</t>
-  </si>
-  <si>
-    <t>श्री रामानुज-ब्रह्मतन्त्र-स्वतन्त्र-महा-परकाल-देशिकन् (1772-1810)</t>
-  </si>
-  <si>
-    <t>श्री घंटावतार-ब्रह्मतन्त्र-स्वतन्त्र-परकाल-महा-देशिकन् (1810-1829)</t>
-  </si>
-  <si>
-    <t>श्री वेदान्त-ब्रह्मतन्त्र-स्वतन्त्र-परकाल-महा-देशिकन् (1829-1836)</t>
-  </si>
-  <si>
-    <t>श्री श्रीनिवास ब्रह्मतन्त्र स्वतन्त्र परकाल महा देशिकन् (1836-1861)</t>
-  </si>
-  <si>
-    <t>श्री श्रीनिवास देशिकेन्द्र ब्रह्मतेन्द्र स्वतन्त्रपरकला महा देशिकन् (1861-1873)</t>
-  </si>
-  <si>
-    <t>श्री रङ्गनाथ-ब्रह्मतन्त्र-स्वतन्त्र-परकाल-महा-देशिकन् (1873-1885)</t>
-  </si>
-  <si>
     <t>श्री कृष्ण-ब्रह्मतन्त्र-स्वतन्त्र-परकाल-महा-देशिकन् (1885-1915)</t>
   </si>
   <si>
-    <t>श्री-वागीश-ब्रह्मतन्त्र-स्वतन्त्र-परकाल-महा-देशिकन् (1915-1925)</t>
-  </si>
-  <si>
-    <t>श्रीमत्-अभिनव-रङ्गनाथ-ब्रह्मतन्त्र-स्वतन्त्र-परकाल-महा-देशिकन् (1925-1967)</t>
-  </si>
-  <si>
-    <t>श्रीमठः अभिनव श्रीनिवासः ब्रह्मतन्त्रः स्वतन्त्रपरकला महा देशिकन् (1967-1972)</t>
-  </si>
-  <si>
-    <t>श्रीमथ् अभिनव रामानुज ब्रह्मतन्त्र स्वतन्त्रपरकला महा देशिकन् (1972-1992)</t>
-  </si>
-  <si>
-    <t>श्रीमत् अभिनवा वगीश ब्रह्मतन्त्र स्वतन्त्रपरकला महा देशिकन् (1992-प्रकृत)</t>
-  </si>
-  <si>
     <t>SL NO</t>
   </si>
   <si>
@@ -241,6 +145,102 @@
   </si>
   <si>
     <t>श्रीपरकालाचार्याः</t>
+  </si>
+  <si>
+    <t>श्री वेदान्त-लक्ष्मण-ब्रह्मतन्त्र-स्वतन्त्र-महा- देशिकन् (1663-1673)</t>
+  </si>
+  <si>
+    <t>श्री वरद-वेदान्त- योगीन्द्र-ब्रह्मतन्त्र-स्वतन्त्र- महा- देशिकन् (1673-1677)</t>
+  </si>
+  <si>
+    <t>श्री रामानुज ब्रह्मतन्त्रस्वतन्त्र- परकाल- महा-देशिकन् (1772-1810)</t>
+  </si>
+  <si>
+    <t>श्री घंटावतार- ब्रह्मतन्त्र-स्वतन्त्र- परकाल- महा-देशिकन् (1810-1829)</t>
+  </si>
+  <si>
+    <t>श्री वेदान्त- ब्रह्मतन्त्र-स्वतन्त्र- परकाल- महा-देशिकन् (1829-1836)</t>
+  </si>
+  <si>
+    <t>श्री श्रीनिवास ब्रह्मतन्त्र स्वतन्त्र परकाल- महा- देशिकन् (1836-1861)</t>
+  </si>
+  <si>
+    <t>श्री श्रीनिवास- देशिकेन्द्र ब्रह्मतन्त्र- स्वतन्त्र- परकल- महा- देशिकन् (1861-1873)</t>
+  </si>
+  <si>
+    <t>श्री रङ्गनाथ- ब्रह्मतन्त्र-स्वतन्त्र- परकाल- महा- देशिकन् (1873-1885)</t>
+  </si>
+  <si>
+    <t>श्रीमत्- अभिनव- श्रीनिवास- ब्रह्मतन्त्र- स्वतन्त्रपरकल- महा- देशिकन् (1967-1972)</t>
+  </si>
+  <si>
+    <t>श्री ब्रह्मतन्त्र स्वतन्त्र महा- देशिकन् (1359-1386)</t>
+  </si>
+  <si>
+    <t>श्री-द्वितीयः (वात्स्य-वेदान्त-रामानुज) ब्रह्मतन्त्र-स्वतन्त्र  महा- देशिकन् (1386-1394)</t>
+  </si>
+  <si>
+    <t>श्री परकाल- ब्रह्मतन्त्र-स्वतन्त्र महा- देशिकन् (1406-1424)</t>
+  </si>
+  <si>
+    <t>श्री श्रीनिवास-ब्रह्मतन्त्र-स्वतन्त्र महा- देशिकन् (1440-1460)</t>
+  </si>
+  <si>
+    <t>श्री रङ्गराज-योगीन्द्र-ब्रह्मतन्त्र-स्वतन्त्र महा- देशिकन् (1482-1498)</t>
+  </si>
+  <si>
+    <t>श्री ब्रह्मतन्त्र स्वतन्त्र महा- देशिकन् (1498-1517)</t>
+  </si>
+  <si>
+    <t>श्री यतिराज-ब्रह्मतन्त्र-स्वतन्त्र महा- देशिकन् (1517-1535)</t>
+  </si>
+  <si>
+    <t>श्री पराङ्कुश-ब्रह्मतन्त्र-स्वतन्त्र महा- देशिकन् (1552-1567)</t>
+  </si>
+  <si>
+    <t>श्री वेदान्त-यतिवर्य-ब्रह्मतन्त्र-स्वतन्त्र महा- देशिकन् (1583-1607)</t>
+  </si>
+  <si>
+    <t>श्री ज्ञानाब्दि-ब्रह्मतन्त्र-स्वतन्त्र-महा- देशिकन् (1607-1618)</t>
+  </si>
+  <si>
+    <t>श्री वीर राघव योगीन्द्र ब्रह्मतन्त्र-स्वतन्त्र-महा- देशिकन् (1618-1640)</t>
+  </si>
+  <si>
+    <t>श्रीवरद-वेदान्त-ब्रह्मतन्त्र-स्वतन्त्र-महा- देशिकन् (1640-1652)</t>
+  </si>
+  <si>
+    <t>श्री महा परकाल-ब्रह्मतन्त्र-स्वतन्त्र-महा- देशिकन् (1676-1738)</t>
+  </si>
+  <si>
+    <t>श्री श्रीनिवास ब्रह्मतन्त्र स्वतन्त्र परकाल महा- देशिकन् (1738-1751)</t>
+  </si>
+  <si>
+    <t>श्री-त्रितिय (श्रीनिवास) ब्रह्मतन्त्र स्वतन्त्र महा- देशिकन् (1394-1406)</t>
+  </si>
+  <si>
+    <t>श्री वरद- ब्रह्मतन्त्र स्वतन्त्र महा- देशिकन् (1535-1552)</t>
+  </si>
+  <si>
+    <t>श्री कवितार्किकसिंह- ब्रह्मतन्त्र स्वतन्त्र महा- देशिकन् (1567-1583)</t>
+  </si>
+  <si>
+    <t>श्री वागीश-ब्रह्मतन्त्र-स्वतन्त्र- परकाल- महा-देशिकन् (1915-1925)</t>
+  </si>
+  <si>
+    <t>श्रीमत्- अभिनव- वगीश- ब्रह्मतन्त्र- स्वतन्त्रपरकल- महा- देशिकन् (1992-प्रकृत)</t>
+  </si>
+  <si>
+    <t>श्रीमत्- अभिनव- श्रीनिवास-ब्रह्मतन्त्र-स्वतन्त्र-परकाल- महा- देशिकन् (1770-1772)</t>
+  </si>
+  <si>
+    <t>श्री नारायण-योगीन्द्र-ब्रह्मतन्त्र-स्वतन्त्र महा- देशिकन् (1460-1482)</t>
+  </si>
+  <si>
+    <t>श्रीमत्- अभिनव- रङ्गनाथ- ब्रह्मतन्त्र- स्वतन्त्रपरकल- महा- देशिकन् (1925-1967)</t>
+  </si>
+  <si>
+    <t>श्रीमत्- अभिनव- रामानुज ब्रह्मतन्त्र- स्वतन्त्रपरकल- महा- देशिकन् (1972-1992)</t>
   </si>
 </sst>
 </file>
@@ -609,19 +609,19 @@
   </sheetPr>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B1" s="12" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -637,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -645,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -661,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -677,7 +677,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -685,7 +685,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -693,7 +693,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -709,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -717,7 +717,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -725,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -733,7 +733,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -741,7 +741,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -749,7 +749,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -757,7 +757,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -765,7 +765,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -773,7 +773,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -781,7 +781,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -789,7 +789,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -797,7 +797,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -805,7 +805,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -813,7 +813,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -821,7 +821,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -829,7 +829,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -837,7 +837,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -845,7 +845,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -853,7 +853,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -861,7 +861,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -869,7 +869,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -877,7 +877,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -885,7 +885,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -893,7 +893,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -901,7 +901,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
@@ -909,7 +909,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
@@ -945,16 +945,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -963,7 +963,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="7" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D2" s="17">
         <v>0</v>
@@ -976,7 +976,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
@@ -989,7 +989,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="7" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D5" s="17">
         <v>3</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D6" s="18">
         <v>4</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4">
         <v>5</v>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D8" s="17">
         <v>6</v>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D9" s="18">
         <v>7</v>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="7" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4">
         <v>8</v>
@@ -1080,13 +1080,13 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D11" s="17">
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D12" s="17">
         <v>10</v>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D13" s="17">
         <v>10</v>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D14" s="17">
         <v>11</v>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="7" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D15" s="17">
         <v>11</v>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D16" s="17">
         <v>12</v>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="7" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D17" s="17">
         <v>12</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D18" s="19">
         <v>13</v>
@@ -1186,13 +1186,13 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D19" s="19">
         <v>14</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D20" s="20">
         <v>15</v>
@@ -1220,7 +1220,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1232,50 +1232,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/acharyan_captions_sanskrit.xlsx
+++ b/acharyan_captions_sanskrit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ubuntu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\POSTER\Sri_Parakala_Poster_Template_300DPI\Parampara_Poster\parampara_poster_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C99F7F-3653-4690-9A50-5C255C5B7F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BB64B5-3025-4658-8091-9647CB365753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39970" yWindow="2660" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40260" yWindow="3780" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acharyan_captions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Sri Parakāla Mata Acharyas</t>
   </si>
@@ -228,19 +228,16 @@
     <t>M3</t>
   </si>
   <si>
-    <t>श्रीपरकालमठस्य आचार्याः</t>
-  </si>
-  <si>
     <t>M4</t>
   </si>
   <si>
-    <t>ब्रह्मतन्त्रस्वतन्त्रस्वामिपरम्परा</t>
-  </si>
-  <si>
     <t>M5</t>
   </si>
   <si>
     <t>श्रीपरकालस्वामिमठः – श्रीवेदान्तदेशिकस्य अविच्छिन्नपरम्परा</t>
+  </si>
+  <si>
+    <t>श्री ब्रह्मतन्त्र  स्वतन्त्र परकाल स्वामि मठस्य आचार्याः</t>
   </si>
 </sst>
 </file>
@@ -585,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -895,7 +892,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1144,7 +1141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1180,23 +1179,20 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/acharyan_captions_sanskrit.xlsx
+++ b/acharyan_captions_sanskrit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODING\POSTER\Sri_Parakala_Poster_Template_300DPI\Parampara_Poster\parampara_poster_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BB64B5-3025-4658-8091-9647CB365753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50A5834-A70B-48B3-9586-CE4A7E8A1C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40260" yWindow="3780" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="3030" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acharyan_captions" sheetId="1" r:id="rId1"/>
@@ -216,9 +216,6 @@
     <t>M1</t>
   </si>
   <si>
-    <t>श्रीपरकालमठस्य गुरुपरम्परा</t>
-  </si>
-  <si>
     <t>M2</t>
   </si>
   <si>
@@ -237,7 +234,10 @@
     <t>श्रीपरकालस्वामिमठः – श्रीवेदान्तदेशिकस्य अविच्छिन्नपरम्परा</t>
   </si>
   <si>
-    <t>श्री ब्रह्मतन्त्र  स्वतन्त्र परकाल स्वामि मठस्य आचार्याः</t>
+    <t>श्रीब्रह्मतन्त्रस्वतन्त्रपरकालस्वामिमठस्य आचार्याः</t>
+  </si>
+  <si>
+    <t>श्रीब्रह्मतन्त्रस्वतन्त्रपरकालस्वामिमठस्य गुरुपरम्परा</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1163,36 +1163,36 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
         <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
         <v>69</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
